--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-76833.90235641977</v>
+        <v>-86095.77977105146</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30133877.5916827</v>
+        <v>30133877.59168269</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15297430.99340741</v>
+        <v>15297430.99340739</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2066105.911154955</v>
+        <v>1986640.299187457</v>
       </c>
     </row>
     <row r="11">
@@ -2081,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.252961735359149</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2157,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2245,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>99.4476420004344</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2327,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>250.3296005997898</v>
       </c>
       <c r="G23" t="n">
         <v>397.3838530629687</v>
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>320.3702041689764</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>115.4012337133193</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>48.5737659266107</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2494,7 +2496,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>383.7717122625497</v>
       </c>
       <c r="D26" t="n">
         <v>424.2958575201043</v>
@@ -2564,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2618,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>242.9629419740113</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2649,7 +2651,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H27" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2716,22 +2718,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>114.9630455437713</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>66.11052959175855</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2789,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D29" t="n">
-        <v>296.8766259221701</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>378.7606637428541</v>
       </c>
       <c r="H29" t="n">
         <v>286.2388530112159</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2880,7 +2882,7 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F30" t="n">
-        <v>82.55000000000001</v>
+        <v>82.55</v>
       </c>
       <c r="G30" t="n">
         <v>84.53123883647795</v>
@@ -2950,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>67.1147001653564</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>85.48535629365504</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3010,13 +3012,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>74.06216992684948</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>48.26988917406528</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3123,7 +3125,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H33" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>70.76772751010279</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>67.1147001653564</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -3241,19 +3243,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>374.4268935289279</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3323,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>37.08088853500287</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3424,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>42.94701389777772</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>106.062636650466</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3487,10 +3489,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D38" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>383.0646100373297</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>19.35726169821097</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3597,7 +3599,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H39" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3670,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3724,10 +3726,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>56.41800393046368</v>
       </c>
       <c r="Y40" t="n">
-        <v>173.5591556145158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>72.62525989088329</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>424.2958575201043</v>
@@ -3749,7 +3751,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>373.7197913037078</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3834,7 +3836,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H42" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,22 +3900,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>10.52836099037898</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>93.41827306551629</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3989,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>46.26926615534656</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4053,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="46">
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>84.85899356878417</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1613.531556264254</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1184.949882001523</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>756.3682077387909</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>327.7865334760593</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>327.7865334760593</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>323.4906125312521</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>34.36045797446834</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>33.94366860160834</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>33.94366860160834</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>453.9965675465116</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>453.9965675465116</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>453.9965675465116</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>453.9965675465116</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>687.9235674375537</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1107.976466382457</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1528.02936532736</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1697.183430080417</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1613.531556264254</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1613.531556264254</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1613.531556264254</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1613.531556264254</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1613.531556264254</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1613.531556264254</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1613.531556264254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>540.1154135929012</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>433.6589524295435</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>338.5686635760967</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>244.4482489030504</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>161.0644105192121</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>75.67932078539593</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>33.94366860160834</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>60.00734176206595</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>384.5656667282782</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>804.6185656731816</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1159.957753041174</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1159.957753041174</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1159.957753041174</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1159.957753041174</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1159.957753041174</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1580.010651986078</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1697.183430080417</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1633.7279925288</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1503.549348859402</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1327.21280185937</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>1128.09528392137</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>942.7725296545636</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>787.9050938934436</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>661.4193146726643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>705.2562847857771</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>705.2562847857771</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>705.2562847857771</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>604.8041211489747</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>428.0970671107308</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>262.5057921365585</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>122.603617826933</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>33.94366860160834</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.94366860160834</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>33.94366860160834</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>89.90148899448771</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>509.954387939391</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>930.0072868842942</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1349.676536110076</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1697.183430080417</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1697.183430080417</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1675.765608785789</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1516.524240083786</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1270.644793662241</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>992.2117929153466</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>705.2562847857771</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>705.2562847857771</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>705.2562847857771</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>705.2562847857771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>863.6257189419966</v>
+        <v>688.1996824023746</v>
       </c>
       <c r="C23" t="n">
-        <v>863.6257189419966</v>
+        <v>688.1996824023746</v>
       </c>
       <c r="D23" t="n">
-        <v>863.6257189419966</v>
+        <v>688.1996824023746</v>
       </c>
       <c r="E23" t="n">
-        <v>863.6257189419966</v>
+        <v>688.1996824023746</v>
       </c>
       <c r="F23" t="n">
-        <v>435.7582893512044</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G23" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H23" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I23" t="n">
         <v>33.94366860160834</v>
@@ -5990,19 +5992,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K23" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L23" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M23" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N23" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O23" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P23" t="n">
         <v>1107.976466382457</v>
@@ -6014,25 +6016,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S23" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T23" t="n">
-        <v>1613.531556264254</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U23" t="n">
-        <v>1613.531556264254</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V23" t="n">
-        <v>1613.531556264254</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="W23" t="n">
-        <v>1289.925289426904</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="X23" t="n">
-        <v>1289.925289426904</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="Y23" t="n">
-        <v>1289.925289426904</v>
+        <v>1114.499252887282</v>
       </c>
     </row>
     <row r="24">
@@ -6045,7 +6047,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D24" t="n">
         <v>338.5686635760967</v>
@@ -6054,34 +6056,34 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G24" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H24" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I24" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J24" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K24" t="n">
-        <v>778.554892512724</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L24" t="n">
-        <v>778.554892512724</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M24" t="n">
-        <v>778.554892512724</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N24" t="n">
-        <v>778.554892512724</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O24" t="n">
-        <v>778.554892512724</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P24" t="n">
         <v>1159.957753041174</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1113.00182921349</v>
+        <v>900.8445784982696</v>
       </c>
       <c r="C25" t="n">
-        <v>940.4401176967148</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D25" t="n">
-        <v>774.5621248982375</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E25" t="n">
-        <v>604.8041211489747</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F25" t="n">
-        <v>428.0970671107308</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G25" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H25" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I25" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J25" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K25" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L25" t="n">
-        <v>452.1535503695694</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M25" t="n">
-        <v>872.2064493144727</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N25" t="n">
-        <v>1277.514180854636</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O25" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P25" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q25" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R25" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S25" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T25" t="n">
-        <v>1516.524240083786</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U25" t="n">
-        <v>1516.524240083786</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V25" t="n">
-        <v>1229.568731954216</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="W25" t="n">
-        <v>1229.568731954216</v>
+        <v>900.8445784982696</v>
       </c>
       <c r="X25" t="n">
-        <v>1229.568731954216</v>
+        <v>900.8445784982696</v>
       </c>
       <c r="Y25" t="n">
-        <v>1229.568731954216</v>
+        <v>900.8445784982696</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>462.52534286434</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="C26" t="n">
-        <v>462.52534286434</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="D26" t="n">
-        <v>33.94366860160834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="E26" t="n">
-        <v>33.94366860160834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F26" t="n">
         <v>33.94366860160834</v>
@@ -6251,25 +6253,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S26" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T26" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U26" t="n">
-        <v>1134.24202645431</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V26" t="n">
-        <v>1134.24202645431</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W26" t="n">
-        <v>1134.24202645431</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X26" t="n">
-        <v>888.8249133492478</v>
+        <v>1278.040966659728</v>
       </c>
       <c r="Y26" t="n">
-        <v>888.8249133492478</v>
+        <v>1278.040966659728</v>
       </c>
     </row>
     <row r="27">
@@ -6294,31 +6296,31 @@
         <v>161.064410519212</v>
       </c>
       <c r="G27" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H27" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I27" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J27" t="n">
-        <v>319.8519551513677</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K27" t="n">
-        <v>319.8519551513677</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L27" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M27" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N27" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O27" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P27" t="n">
         <v>1159.957753041174</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>918.5584811903379</v>
+        <v>466.6771853775295</v>
       </c>
       <c r="C28" t="n">
-        <v>918.5584811903379</v>
+        <v>466.6771853775295</v>
       </c>
       <c r="D28" t="n">
-        <v>752.6804883918606</v>
+        <v>466.6771853775295</v>
       </c>
       <c r="E28" t="n">
-        <v>582.922484642598</v>
+        <v>466.6771853775295</v>
       </c>
       <c r="F28" t="n">
-        <v>406.2154306043542</v>
+        <v>289.9701313392857</v>
       </c>
       <c r="G28" t="n">
-        <v>240.6241556301819</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H28" t="n">
-        <v>100.7219813205564</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I28" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J28" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K28" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L28" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M28" t="n">
-        <v>872.2064493144727</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N28" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O28" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P28" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q28" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R28" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S28" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T28" t="n">
-        <v>1675.765608785789</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U28" t="n">
-        <v>1397.332608038895</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V28" t="n">
-        <v>1110.377099909325</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W28" t="n">
-        <v>1110.377099909325</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.377099909325</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="Y28" t="n">
-        <v>1110.377099909325</v>
+        <v>658.4958040965166</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1050.816632468548</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="C29" t="n">
-        <v>1050.816632468548</v>
+        <v>705.6603521915781</v>
       </c>
       <c r="D29" t="n">
-        <v>750.9412527491843</v>
+        <v>705.6603521915781</v>
       </c>
       <c r="E29" t="n">
-        <v>750.9412527491843</v>
+        <v>705.6603521915781</v>
       </c>
       <c r="F29" t="n">
-        <v>323.0738231583921</v>
+        <v>705.6603521915781</v>
       </c>
       <c r="G29" t="n">
         <v>323.0738231583921</v>
@@ -6461,19 +6463,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J29" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K29" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L29" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M29" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N29" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O29" t="n">
         <v>687.9235674375537</v>
@@ -6488,25 +6490,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S29" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T29" t="n">
-        <v>1477.116202953456</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U29" t="n">
-        <v>1477.116202953456</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V29" t="n">
-        <v>1477.116202953456</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W29" t="n">
-        <v>1477.116202953456</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="X29" t="n">
-        <v>1477.116202953456</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="Y29" t="n">
-        <v>1477.116202953456</v>
+        <v>1134.24202645431</v>
       </c>
     </row>
     <row r="30">
@@ -6546,16 +6548,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L30" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M30" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N30" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O30" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P30" t="n">
         <v>1159.957753041174</v>
@@ -6595,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>546.0000013632873</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="C31" t="n">
-        <v>546.0000013632873</v>
+        <v>532.694573269002</v>
       </c>
       <c r="D31" t="n">
-        <v>546.0000013632873</v>
+        <v>532.694573269002</v>
       </c>
       <c r="E31" t="n">
-        <v>376.2419976140245</v>
+        <v>532.694573269002</v>
       </c>
       <c r="F31" t="n">
-        <v>199.5349435757807</v>
+        <v>355.9875192307583</v>
       </c>
       <c r="G31" t="n">
-        <v>33.94366860160834</v>
+        <v>190.3962442565859</v>
       </c>
       <c r="H31" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I31" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J31" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K31" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L31" t="n">
-        <v>452.1535503695694</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M31" t="n">
-        <v>452.1535503695694</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N31" t="n">
-        <v>761.8145120199619</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O31" t="n">
         <v>1181.483761245743</v>
@@ -6643,28 +6645,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R31" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S31" t="n">
-        <v>1610.834585339352</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T31" t="n">
-        <v>1610.834585339352</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U31" t="n">
-        <v>1332.401584592457</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V31" t="n">
-        <v>1045.446076462888</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W31" t="n">
-        <v>773.4196720491791</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="X31" t="n">
-        <v>773.4196720491791</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="Y31" t="n">
-        <v>546.0000013632873</v>
+        <v>705.2562847857771</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>510.5685620045878</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="C32" t="n">
-        <v>510.5685620045878</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="D32" t="n">
-        <v>510.5685620045878</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="E32" t="n">
-        <v>461.8110981924006</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="F32" t="n">
-        <v>33.94366860160834</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="G32" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H32" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I32" t="n">
         <v>33.94366860160834</v>
@@ -6756,7 +6758,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C33" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D33" t="n">
         <v>338.5686635760967</v>
@@ -6765,10 +6767,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F33" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G33" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H33" t="n">
         <v>33.94366860160834</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>333.9883451770664</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="C34" t="n">
-        <v>333.9883451770664</v>
+        <v>532.694573269002</v>
       </c>
       <c r="D34" t="n">
-        <v>333.9883451770664</v>
+        <v>532.694573269002</v>
       </c>
       <c r="E34" t="n">
-        <v>333.9883451770664</v>
+        <v>532.694573269002</v>
       </c>
       <c r="F34" t="n">
-        <v>333.9883451770664</v>
+        <v>355.9875192307583</v>
       </c>
       <c r="G34" t="n">
-        <v>262.5057921365585</v>
+        <v>190.3962442565859</v>
       </c>
       <c r="H34" t="n">
         <v>122.603617826933</v>
@@ -6859,22 +6861,22 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K34" t="n">
-        <v>120.5233537662982</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L34" t="n">
-        <v>538.7332355342593</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M34" t="n">
-        <v>857.4612819097326</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N34" t="n">
-        <v>1277.514180854636</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O34" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P34" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q34" t="n">
         <v>1697.183430080417</v>
@@ -6889,19 +6891,19 @@
         <v>1270.644793662241</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.644793662241</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V34" t="n">
-        <v>1270.644793662241</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W34" t="n">
-        <v>998.6183892485328</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="X34" t="n">
-        <v>753.2266345819453</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="Y34" t="n">
-        <v>525.8069638960535</v>
+        <v>705.2562847857771</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1697.183430080417</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C35" t="n">
-        <v>1318.974446717864</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D35" t="n">
-        <v>890.3927724551322</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E35" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F35" t="n">
         <v>33.94366860160834</v>
@@ -6935,19 +6937,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J35" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K35" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L35" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M35" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N35" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O35" t="n">
         <v>687.9235674375537</v>
@@ -6971,16 +6973,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V35" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W35" t="n">
-        <v>1697.183430080417</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="X35" t="n">
-        <v>1697.183430080417</v>
+        <v>1297.111037049594</v>
       </c>
       <c r="Y35" t="n">
-        <v>1697.183430080417</v>
+        <v>888.8249133492478</v>
       </c>
     </row>
     <row r="36">
@@ -7020,16 +7022,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L36" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M36" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N36" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O36" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P36" t="n">
         <v>1159.957753041174</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>33.94366860160834</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="C37" t="n">
-        <v>33.94366860160834</v>
+        <v>419.9095375572969</v>
       </c>
       <c r="D37" t="n">
-        <v>33.94366860160834</v>
+        <v>254.0315447588195</v>
       </c>
       <c r="E37" t="n">
-        <v>33.94366860160834</v>
+        <v>254.0315447588195</v>
       </c>
       <c r="F37" t="n">
-        <v>33.94366860160834</v>
+        <v>77.32449072057574</v>
       </c>
       <c r="G37" t="n">
-        <v>33.94366860160834</v>
+        <v>77.32449072057574</v>
       </c>
       <c r="H37" t="n">
         <v>33.94366860160834</v>
@@ -7093,52 +7095,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J37" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K37" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L37" t="n">
-        <v>437.4083829648294</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M37" t="n">
-        <v>857.4612819097326</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N37" t="n">
-        <v>1277.514180854636</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O37" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P37" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q37" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R37" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S37" t="n">
-        <v>1590.049453665805</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T37" t="n">
-        <v>1344.17000724426</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U37" t="n">
-        <v>1065.737006497366</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V37" t="n">
-        <v>778.7814983677961</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W37" t="n">
-        <v>506.7550939540876</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X37" t="n">
-        <v>261.3633392875001</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="Y37" t="n">
-        <v>33.94366860160834</v>
+        <v>592.4712490740719</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1278.040966659728</v>
+        <v>752.0722867939837</v>
       </c>
       <c r="C38" t="n">
-        <v>1278.040966659728</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="D38" t="n">
-        <v>849.4592923969963</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="E38" t="n">
-        <v>420.8776181342646</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="F38" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G38" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H38" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I38" t="n">
         <v>33.94366860160834</v>
@@ -7178,46 +7180,46 @@
         <v>874.0494664914149</v>
       </c>
       <c r="L38" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M38" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N38" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O38" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P38" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q38" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R38" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S38" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T38" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U38" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V38" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W38" t="n">
-        <v>1697.183430080417</v>
+        <v>752.0722867939837</v>
       </c>
       <c r="X38" t="n">
-        <v>1278.040966659728</v>
+        <v>752.0722867939837</v>
       </c>
       <c r="Y38" t="n">
-        <v>1278.040966659728</v>
+        <v>752.0722867939837</v>
       </c>
     </row>
     <row r="39">
@@ -7242,7 +7244,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G39" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H39" t="n">
         <v>33.94366860160834</v>
@@ -7257,16 +7259,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L39" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M39" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N39" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O39" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P39" t="n">
         <v>1159.957753041174</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>33.94366860160834</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="C40" t="n">
-        <v>33.94366860160834</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="D40" t="n">
-        <v>33.94366860160834</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="E40" t="n">
-        <v>33.94366860160834</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F40" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G40" t="n">
         <v>33.94366860160834</v>
@@ -7330,52 +7332,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J40" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K40" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L40" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M40" t="n">
-        <v>857.4612819097326</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N40" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O40" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P40" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q40" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R40" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S40" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T40" t="n">
-        <v>1292.062614956869</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U40" t="n">
-        <v>1013.629614209975</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V40" t="n">
-        <v>726.6741060804052</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W40" t="n">
-        <v>454.6477016666967</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X40" t="n">
-        <v>209.2559470001092</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="Y40" t="n">
-        <v>33.94366860160834</v>
+        <v>376.2419976140245</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1320.105480762663</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C41" t="n">
-        <v>891.5238064999317</v>
+        <v>1268.601755817686</v>
       </c>
       <c r="D41" t="n">
-        <v>462.9421322372</v>
+        <v>840.020081554954</v>
       </c>
       <c r="E41" t="n">
-        <v>34.36045797446834</v>
+        <v>411.4384072922223</v>
       </c>
       <c r="F41" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G41" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H41" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I41" t="n">
         <v>33.94366860160834</v>
@@ -7436,25 +7438,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S41" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T41" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U41" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V41" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W41" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X41" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y41" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="42">
@@ -7479,7 +7481,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G42" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H42" t="n">
         <v>33.94366860160834</v>
@@ -7491,19 +7493,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K42" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L42" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M42" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N42" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O42" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P42" t="n">
         <v>1159.957753041174</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1024.341879988165</v>
+        <v>221.285430710942</v>
       </c>
       <c r="C43" t="n">
-        <v>851.7801684713901</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D43" t="n">
-        <v>685.9021756729128</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E43" t="n">
-        <v>516.14417192365</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F43" t="n">
-        <v>339.4371178854062</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G43" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H43" t="n">
         <v>33.94366860160834</v>
@@ -7567,25 +7569,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J43" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K43" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L43" t="n">
-        <v>452.1535503695694</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M43" t="n">
-        <v>872.2064493144727</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N43" t="n">
-        <v>1292.259348259376</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O43" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P43" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q43" t="n">
         <v>1697.183430080417</v>
@@ -7594,25 +7596,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S43" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T43" t="n">
-        <v>1443.580169393044</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U43" t="n">
-        <v>1443.580169393044</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V43" t="n">
-        <v>1443.580169393044</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W43" t="n">
-        <v>1443.580169393044</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="X43" t="n">
-        <v>1443.580169393044</v>
+        <v>640.5237201158209</v>
       </c>
       <c r="Y43" t="n">
-        <v>1216.160498707152</v>
+        <v>413.1040494299291</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>724.8884439079882</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1590.049453665805</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1344.17000724426</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1065.737006497366</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>778.7814983677961</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>506.7550939540876</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>261.3633392875001</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
   </sheetData>
@@ -9401,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9413,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9498,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9562,19 +9564,19 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>56.52305090189834</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9638,22 +9640,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q23" t="n">
         <v>424.2958575201044</v>
@@ -9711,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P24" t="n">
-        <v>385.2554146752024</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q24" t="n">
         <v>424.2958575201044</v>
@@ -9793,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="N25" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9948,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>288.7962490401609</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -10030,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O29" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P29" t="n">
         <v>424.2958575201044</v>
@@ -10194,19 +10196,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -10267,22 +10269,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N31" t="n">
-        <v>312.7888501519116</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -10507,25 +10509,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M34" t="n">
-        <v>321.9475215913873</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N34" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10595,10 +10597,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O35" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P35" t="n">
         <v>424.2958575201044</v>
@@ -10668,19 +10670,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>424.2958575201044</v>
@@ -10741,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>407.5401155184051</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M37" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N37" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10826,25 +10828,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L38" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,7 +10907,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>424.2958575201044</v>
@@ -10978,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11139,22 +11141,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P42" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L42" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -11215,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M43" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11309,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11375,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11394,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11452,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23969,25 +23971,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>393.1308913276096</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -24045,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24096,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="22">
@@ -24133,19 +24135,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>68.61278171133571</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -24215,7 +24217,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>173.2591546950945</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24224,7 +24226,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>80.43669587410056</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.49919881847789</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>122.2623284749966</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>49.98933582586119</v>
       </c>
       <c r="D26" t="n">
         <v>7.254829457195569</v>
@@ -24452,7 +24454,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>397.3838530629687</v>
@@ -24491,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -24506,7 +24508,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>171.9880968124711</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24604,22 +24606,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>48.97231668065929</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>21.66282014131286</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D29" t="n">
-        <v>134.6740610551298</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>18.62318932011459</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24728,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -24838,13 +24840,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>71.38845240117283</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>72.16359872132826</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>347.9744048532092</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -24923,19 +24925,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>381.1671082192225</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -25084,13 +25086,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>93.16763471432782</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>71.38845240117283</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25129,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25151,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>59.33415455948301</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D35" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
@@ -25211,16 +25213,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>377.8701502514795</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25312,22 +25314,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>95.55613866875152</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>51.58631836451733</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25391,25 +25393,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D38" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>40.52414525755466</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>381.4496383448661</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25558,10 +25560,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>186.519833189458</v>
       </c>
       <c r="Y40" t="n">
-        <v>51.58631836451698</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>349.4113148891754</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>9.465190568306582</v>
@@ -25637,7 +25639,7 @@
         <v>5.14113987318342</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>49.86896399117649</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -25646,7 +25648,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -25786,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>160.3077334112283</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25834,22 +25836,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>150.002378891813</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>368.6817726311359</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -25941,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>72.78996144619913</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>373359.4247459127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>373359.4247459128</v>
+        <v>373359.4247459127</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>373359.4247459127</v>
+        <v>373359.4247459128</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>373359.4247459128</v>
+        <v>373359.4247459127</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>373359.4247459127</v>
+        <v>373359.4247459128</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>373359.4247459128</v>
       </c>
     </row>
   </sheetData>
@@ -26329,13 +26331,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>84141.63629345149</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>84141.63629345146</v>
       </c>
       <c r="J2" t="n">
-        <v>84141.63629345148</v>
+        <v>84141.63629345146</v>
       </c>
       <c r="K2" t="n">
         <v>84141.63629345146</v>
@@ -26344,16 +26346,16 @@
         <v>84141.63629345148</v>
       </c>
       <c r="M2" t="n">
+        <v>84141.63629345148</v>
+      </c>
+      <c r="N2" t="n">
         <v>84141.63629345146</v>
-      </c>
-      <c r="N2" t="n">
-        <v>84141.63629345148</v>
       </c>
       <c r="O2" t="n">
         <v>84141.63629345148</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>84141.63629345148</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>114478.8410216418</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>112829.1787276037</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26433,7 +26435,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>37160.80836782805</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>37160.80836782805</v>
@@ -26451,13 +26453,13 @@
         <v>37160.80836782805</v>
       </c>
       <c r="N4" t="n">
-        <v>37160.80836782806</v>
+        <v>37160.80836782805</v>
       </c>
       <c r="O4" t="n">
         <v>37160.80836782805</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>37160.80836782805</v>
       </c>
     </row>
     <row r="5">
@@ -26485,7 +26487,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>25797.18813722234</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>25797.18813722234</v>
@@ -26509,7 +26511,7 @@
         <v>25797.18813722234</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>25797.18813722234</v>
       </c>
     </row>
     <row r="6">
@@ -26537,13 +26539,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-93295.20123324075</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>-91645.5389392026</v>
+      </c>
+      <c r="J6" t="n">
         <v>21183.63978840107</v>
-      </c>
-      <c r="J6" t="n">
-        <v>21183.63978840108</v>
       </c>
       <c r="K6" t="n">
         <v>21183.63978840107</v>
@@ -26552,7 +26554,7 @@
         <v>21183.63978840108</v>
       </c>
       <c r="M6" t="n">
-        <v>21183.63978840107</v>
+        <v>21183.63978840108</v>
       </c>
       <c r="N6" t="n">
         <v>21183.63978840107</v>
@@ -26561,7 +26563,7 @@
         <v>21183.63978840108</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>21183.63978840108</v>
       </c>
     </row>
   </sheetData>
@@ -26805,7 +26807,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>424.2958575201043</v>
@@ -26829,7 +26831,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
     </row>
   </sheetData>
@@ -27027,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -36121,7 +36123,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36133,16 +36135,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36218,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36282,19 +36284,19 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>56.52305090189834</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36358,22 +36360,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q23" t="n">
         <v>424.2958575201044</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,10 +36451,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="P24" t="n">
-        <v>385.2554146752024</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q24" t="n">
         <v>424.2958575201044</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="N25" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36668,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>288.7962490401609</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36686,10 +36688,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O29" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P29" t="n">
         <v>424.2958575201044</v>
@@ -36914,19 +36916,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N31" t="n">
-        <v>312.7888501519116</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -37227,25 +37229,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M34" t="n">
-        <v>321.9475215913873</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N34" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -37315,10 +37317,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O35" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P35" t="n">
         <v>424.2958575201044</v>
@@ -37388,19 +37390,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>424.2958575201044</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>407.5401155184051</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M37" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N37" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37548,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L38" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37627,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37637,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>424.2958575201044</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P42" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L42" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M43" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -38029,16 +38031,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38114,10 +38116,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-86095.77977105146</v>
+        <v>-95500.31973381958</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15297430.99340739</v>
+        <v>15297430.9934074</v>
       </c>
     </row>
     <row r="9">
@@ -2320,7 +2320,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>250.3296005997898</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>395.6590476213833</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>48.5737659266107</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>34.43642017470446</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>383.7717122625497</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>19.76988317734234</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2715,22 +2715,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>114.9630455437713</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>8.049597104451616</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>211.8019881041232</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>378.7606637428541</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>286.2388530112159</v>
@@ -2848,7 +2848,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>52.5138685680359</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>67.1147001653564</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>74.06216992684948</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>19.76988317734234</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H33" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>67.1147001653564</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>146.6325435271071</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>324.2261165371872</v>
       </c>
       <c r="C35" t="n">
         <v>424.2958575201043</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>37.08088853500287</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>42.94701389777772</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3486,10 +3486,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>135.5398611221759</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>291.1046211681286</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>19.35726169821097</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3723,13 +3723,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>217.7198220050544</v>
       </c>
       <c r="X40" t="n">
-        <v>56.41800393046368</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3745,19 +3745,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>373.7197913037078</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>378.7606637428541</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3900,19 +3900,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>10.52836099037898</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3957,16 +3957,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>280.9979841239548</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>96.52683884704194</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>46.26926615534656</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H45" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>35.0560030479866</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>84.85899356878417</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>688.1996824023746</v>
+        <v>462.9421322372</v>
       </c>
       <c r="C23" t="n">
-        <v>688.1996824023746</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="D23" t="n">
-        <v>688.1996824023746</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="E23" t="n">
-        <v>688.1996824023746</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F23" t="n">
-        <v>435.3414999783445</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G23" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H23" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I23" t="n">
         <v>33.94366860160834</v>
@@ -5995,16 +5995,16 @@
         <v>874.0494664914149</v>
       </c>
       <c r="L23" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M23" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N23" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O23" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P23" t="n">
         <v>1107.976466382457</v>
@@ -6019,22 +6019,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T23" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U23" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V23" t="n">
-        <v>1114.499252887282</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W23" t="n">
-        <v>1114.499252887282</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X23" t="n">
-        <v>1114.499252887282</v>
+        <v>1297.527826422454</v>
       </c>
       <c r="Y23" t="n">
-        <v>1114.499252887282</v>
+        <v>889.2417027221078</v>
       </c>
     </row>
     <row r="24">
@@ -6047,7 +6047,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D24" t="n">
         <v>338.5686635760967</v>
@@ -6056,10 +6056,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G24" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H24" t="n">
         <v>33.94366860160834</v>
@@ -6071,19 +6071,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K24" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L24" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M24" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N24" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O24" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P24" t="n">
         <v>1159.957753041174</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>900.8445784982696</v>
+        <v>753.632693507099</v>
       </c>
       <c r="C25" t="n">
-        <v>851.7801684713901</v>
+        <v>581.070981990324</v>
       </c>
       <c r="D25" t="n">
-        <v>685.9021756729128</v>
+        <v>415.1929891918467</v>
       </c>
       <c r="E25" t="n">
-        <v>516.14417192365</v>
+        <v>245.4349854425839</v>
       </c>
       <c r="F25" t="n">
-        <v>339.4371178854062</v>
+        <v>68.72793140434013</v>
       </c>
       <c r="G25" t="n">
-        <v>173.8458429112338</v>
+        <v>68.72793140434013</v>
       </c>
       <c r="H25" t="n">
-        <v>33.94366860160834</v>
+        <v>68.72793140434013</v>
       </c>
       <c r="I25" t="n">
         <v>33.94366860160834</v>
@@ -6153,13 +6153,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L25" t="n">
-        <v>395.2818083374338</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M25" t="n">
-        <v>815.3347072823371</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N25" t="n">
-        <v>815.3347072823371</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O25" t="n">
         <v>1181.483761245743</v>
@@ -6186,13 +6186,13 @@
         <v>1172.870982911978</v>
       </c>
       <c r="W25" t="n">
-        <v>900.8445784982696</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="X25" t="n">
-        <v>900.8445784982696</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="Y25" t="n">
-        <v>900.8445784982696</v>
+        <v>945.4513122260862</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1278.040966659728</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="C26" t="n">
-        <v>890.3927724551322</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="D26" t="n">
-        <v>461.8110981924006</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="E26" t="n">
-        <v>461.8110981924006</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="F26" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G26" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H26" t="n">
         <v>33.94366860160834</v>
@@ -6229,16 +6229,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K26" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L26" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M26" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N26" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O26" t="n">
         <v>687.9235674375537</v>
@@ -6253,25 +6253,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S26" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T26" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U26" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V26" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W26" t="n">
-        <v>1697.183430080417</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="X26" t="n">
-        <v>1278.040966659728</v>
+        <v>751.6554974211238</v>
       </c>
       <c r="Y26" t="n">
-        <v>1278.040966659728</v>
+        <v>751.6554974211238</v>
       </c>
     </row>
     <row r="27">
@@ -6284,7 +6284,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C27" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D27" t="n">
         <v>338.5686635760967</v>
@@ -6293,10 +6293,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F27" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G27" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H27" t="n">
         <v>33.94366860160834</v>
@@ -6308,19 +6308,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K27" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L27" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M27" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N27" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O27" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P27" t="n">
         <v>1159.957753041174</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>466.6771853775295</v>
+        <v>550.2722828322362</v>
       </c>
       <c r="C28" t="n">
-        <v>466.6771853775295</v>
+        <v>377.7105713154612</v>
       </c>
       <c r="D28" t="n">
-        <v>466.6771853775295</v>
+        <v>211.8325785169838</v>
       </c>
       <c r="E28" t="n">
-        <v>466.6771853775295</v>
+        <v>42.07457476772109</v>
       </c>
       <c r="F28" t="n">
-        <v>289.9701313392857</v>
+        <v>42.07457476772109</v>
       </c>
       <c r="G28" t="n">
-        <v>173.8458429112338</v>
+        <v>42.07457476772109</v>
       </c>
       <c r="H28" t="n">
         <v>33.94366860160834</v>
@@ -6384,22 +6384,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J28" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K28" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L28" t="n">
-        <v>813.4916901053949</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M28" t="n">
-        <v>813.4916901053949</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N28" t="n">
-        <v>813.4916901053949</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O28" t="n">
-        <v>1181.483761245743</v>
+        <v>1293.718715717196</v>
       </c>
       <c r="P28" t="n">
         <v>1528.990655216085</v>
@@ -6411,25 +6411,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S28" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T28" t="n">
-        <v>1451.303983658873</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U28" t="n">
-        <v>1172.870982911978</v>
+        <v>1259.509060631519</v>
       </c>
       <c r="V28" t="n">
-        <v>885.9154747824084</v>
+        <v>1259.509060631519</v>
       </c>
       <c r="W28" t="n">
-        <v>885.9154747824084</v>
+        <v>987.4826562178109</v>
       </c>
       <c r="X28" t="n">
-        <v>885.9154747824084</v>
+        <v>742.0909015512234</v>
       </c>
       <c r="Y28" t="n">
-        <v>658.4958040965166</v>
+        <v>742.0909015512234</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1134.24202645431</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="C29" t="n">
-        <v>705.6603521915781</v>
+        <v>964.8826548745612</v>
       </c>
       <c r="D29" t="n">
-        <v>705.6603521915781</v>
+        <v>964.8826548745612</v>
       </c>
       <c r="E29" t="n">
-        <v>705.6603521915781</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="F29" t="n">
-        <v>705.6603521915781</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G29" t="n">
         <v>323.0738231583921</v>
@@ -6463,19 +6463,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J29" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K29" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L29" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M29" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N29" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O29" t="n">
         <v>687.9235674375537</v>
@@ -6496,19 +6496,19 @@
         <v>1393.464329137293</v>
       </c>
       <c r="U29" t="n">
-        <v>1134.24202645431</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V29" t="n">
-        <v>1134.24202645431</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W29" t="n">
-        <v>1134.24202645431</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="X29" t="n">
-        <v>1134.24202645431</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="Y29" t="n">
-        <v>1134.24202645431</v>
+        <v>1393.464329137293</v>
       </c>
     </row>
     <row r="30">
@@ -6521,7 +6521,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C30" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D30" t="n">
         <v>338.5686635760967</v>
@@ -6530,10 +6530,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F30" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G30" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H30" t="n">
         <v>33.94366860160834</v>
@@ -6548,16 +6548,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L30" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M30" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N30" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O30" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P30" t="n">
         <v>1159.957753041174</v>
@@ -6597,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>705.2562847857771</v>
+        <v>606.0147495907747</v>
       </c>
       <c r="C31" t="n">
-        <v>532.694573269002</v>
+        <v>433.4530380739997</v>
       </c>
       <c r="D31" t="n">
-        <v>532.694573269002</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E31" t="n">
-        <v>532.694573269002</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F31" t="n">
-        <v>355.9875192307583</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G31" t="n">
-        <v>190.3962442565859</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H31" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I31" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J31" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K31" t="n">
-        <v>395.2818083374338</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L31" t="n">
-        <v>761.43086230084</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M31" t="n">
-        <v>1181.483761245743</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N31" t="n">
-        <v>1181.483761245743</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O31" t="n">
         <v>1181.483761245743</v>
@@ -6654,19 +6654,19 @@
         <v>1270.644793662241</v>
       </c>
       <c r="U31" t="n">
-        <v>992.2117929153466</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V31" t="n">
-        <v>705.2562847857771</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="W31" t="n">
-        <v>705.2562847857771</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="X31" t="n">
-        <v>705.2562847857771</v>
+        <v>1025.253038995654</v>
       </c>
       <c r="Y31" t="n">
-        <v>705.2562847857771</v>
+        <v>797.8333683097619</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>435.7582893512044</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="C32" t="n">
-        <v>435.7582893512044</v>
+        <v>343.0434021254046</v>
       </c>
       <c r="D32" t="n">
-        <v>435.7582893512044</v>
+        <v>343.0434021254046</v>
       </c>
       <c r="E32" t="n">
-        <v>435.7582893512044</v>
+        <v>343.0434021254046</v>
       </c>
       <c r="F32" t="n">
-        <v>435.7582893512044</v>
+        <v>343.0434021254046</v>
       </c>
       <c r="G32" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H32" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I32" t="n">
         <v>33.94366860160834</v>
@@ -6703,19 +6703,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K32" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L32" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M32" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N32" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O32" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P32" t="n">
         <v>1107.976466382457</v>
@@ -6727,25 +6727,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S32" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T32" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U32" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V32" t="n">
-        <v>1334.566480014244</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W32" t="n">
-        <v>929.7110254252771</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="X32" t="n">
-        <v>510.5685620045878</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="Y32" t="n">
-        <v>510.5685620045878</v>
+        <v>771.6250763881362</v>
       </c>
     </row>
     <row r="33">
@@ -6758,7 +6758,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C33" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D33" t="n">
         <v>338.5686635760967</v>
@@ -6767,22 +6767,22 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F33" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G33" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H33" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I33" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J33" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K33" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L33" t="n">
         <v>1159.957753041174</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>705.2562847857771</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="C34" t="n">
-        <v>532.694573269002</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D34" t="n">
-        <v>532.694573269002</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E34" t="n">
-        <v>532.694573269002</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F34" t="n">
-        <v>355.9875192307583</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G34" t="n">
-        <v>190.3962442565859</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H34" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I34" t="n">
         <v>33.94366860160834</v>
@@ -6864,13 +6864,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L34" t="n">
-        <v>761.43086230084</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M34" t="n">
-        <v>1181.483761245743</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="N34" t="n">
-        <v>1181.483761245743</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O34" t="n">
         <v>1181.483761245743</v>
@@ -6882,28 +6882,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R34" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S34" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T34" t="n">
-        <v>1270.644793662241</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U34" t="n">
-        <v>992.2117929153466</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V34" t="n">
-        <v>705.2562847857771</v>
+        <v>1549.069749750006</v>
       </c>
       <c r="W34" t="n">
-        <v>705.2562847857771</v>
+        <v>1549.069749750006</v>
       </c>
       <c r="X34" t="n">
-        <v>705.2562847857771</v>
+        <v>1303.677995083419</v>
       </c>
       <c r="Y34" t="n">
-        <v>705.2562847857771</v>
+        <v>1076.258324397527</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>462.52534286434</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="C35" t="n">
-        <v>33.94366860160834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="D35" t="n">
-        <v>33.94366860160834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="E35" t="n">
-        <v>33.94366860160834</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F35" t="n">
         <v>33.94366860160834</v>
@@ -6967,22 +6967,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T35" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U35" t="n">
-        <v>1697.183430080417</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V35" t="n">
-        <v>1334.566480014244</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="W35" t="n">
-        <v>1334.566480014244</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="X35" t="n">
-        <v>1297.111037049594</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="Y35" t="n">
-        <v>888.8249133492478</v>
+        <v>1217.893900270473</v>
       </c>
     </row>
     <row r="36">
@@ -6995,7 +6995,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C36" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D36" t="n">
         <v>338.5686635760967</v>
@@ -7004,10 +7004,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F36" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G36" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H36" t="n">
         <v>33.94366860160834</v>
@@ -7022,16 +7022,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L36" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M36" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N36" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O36" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P36" t="n">
         <v>1159.957753041174</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>592.4712490740719</v>
+        <v>376.5287154383295</v>
       </c>
       <c r="C37" t="n">
-        <v>419.9095375572969</v>
+        <v>376.5287154383295</v>
       </c>
       <c r="D37" t="n">
-        <v>254.0315447588195</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E37" t="n">
-        <v>254.0315447588195</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F37" t="n">
-        <v>77.32449072057574</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G37" t="n">
-        <v>77.32449072057574</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H37" t="n">
         <v>33.94366860160834</v>
@@ -7122,25 +7122,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S37" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T37" t="n">
-        <v>1429.886162364244</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U37" t="n">
-        <v>1151.45316161735</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V37" t="n">
-        <v>864.4976534877803</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W37" t="n">
-        <v>592.4712490740719</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="X37" t="n">
-        <v>592.4712490740719</v>
+        <v>568.3473341573166</v>
       </c>
       <c r="Y37" t="n">
-        <v>592.4712490740719</v>
+        <v>568.3473341573166</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>752.0722867939837</v>
+        <v>729.3865718653431</v>
       </c>
       <c r="C38" t="n">
-        <v>323.4906125312521</v>
+        <v>729.3865718653431</v>
       </c>
       <c r="D38" t="n">
-        <v>323.4906125312521</v>
+        <v>729.3865718653431</v>
       </c>
       <c r="E38" t="n">
-        <v>323.4906125312521</v>
+        <v>729.3865718653431</v>
       </c>
       <c r="F38" t="n">
-        <v>323.4906125312521</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G38" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H38" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I38" t="n">
         <v>33.94366860160834</v>
@@ -7210,16 +7210,16 @@
         <v>1134.24202645431</v>
       </c>
       <c r="V38" t="n">
-        <v>771.6250763881362</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W38" t="n">
-        <v>752.0722867939837</v>
+        <v>729.3865718653431</v>
       </c>
       <c r="X38" t="n">
-        <v>752.0722867939837</v>
+        <v>729.3865718653431</v>
       </c>
       <c r="Y38" t="n">
-        <v>752.0722867939837</v>
+        <v>729.3865718653431</v>
       </c>
     </row>
     <row r="39">
@@ -7232,7 +7232,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C39" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D39" t="n">
         <v>338.5686635760967</v>
@@ -7241,10 +7241,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F39" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G39" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H39" t="n">
         <v>33.94366860160834</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>376.2419976140245</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C40" t="n">
-        <v>376.2419976140245</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D40" t="n">
-        <v>376.2419976140245</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E40" t="n">
-        <v>376.2419976140245</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F40" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G40" t="n">
         <v>33.94366860160834</v>
@@ -7332,52 +7332,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J40" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K40" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L40" t="n">
-        <v>813.4916901053949</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M40" t="n">
-        <v>813.4916901053949</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N40" t="n">
-        <v>813.4916901053949</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O40" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P40" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q40" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R40" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S40" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T40" t="n">
-        <v>1270.644793662241</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U40" t="n">
-        <v>992.2117929153466</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V40" t="n">
-        <v>705.2562847857771</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W40" t="n">
-        <v>433.2298803720686</v>
+        <v>506.7550939540876</v>
       </c>
       <c r="X40" t="n">
-        <v>376.2419976140245</v>
+        <v>261.3633392875001</v>
       </c>
       <c r="Y40" t="n">
-        <v>376.2419976140245</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="C41" t="n">
-        <v>1268.601755817686</v>
+        <v>705.6603521915781</v>
       </c>
       <c r="D41" t="n">
-        <v>840.020081554954</v>
+        <v>705.6603521915781</v>
       </c>
       <c r="E41" t="n">
-        <v>411.4384072922223</v>
+        <v>705.6603521915781</v>
       </c>
       <c r="F41" t="n">
-        <v>33.94366860160834</v>
+        <v>705.6603521915781</v>
       </c>
       <c r="G41" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H41" t="n">
         <v>33.94366860160834</v>
@@ -7414,19 +7414,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K41" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L41" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M41" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N41" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O41" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P41" t="n">
         <v>1107.976466382457</v>
@@ -7438,25 +7438,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S41" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T41" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U41" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V41" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W41" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="X41" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="Y41" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
     </row>
     <row r="42">
@@ -7469,7 +7469,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C42" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D42" t="n">
         <v>338.5686635760967</v>
@@ -7478,10 +7478,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F42" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G42" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H42" t="n">
         <v>33.94366860160834</v>
@@ -7493,19 +7493,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K42" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L42" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M42" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N42" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O42" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P42" t="n">
         <v>1159.957753041174</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>221.285430710942</v>
+        <v>537.9746478910331</v>
       </c>
       <c r="C43" t="n">
-        <v>210.6507226398521</v>
+        <v>365.412936374258</v>
       </c>
       <c r="D43" t="n">
-        <v>210.6507226398521</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="E43" t="n">
-        <v>210.6507226398521</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="F43" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G43" t="n">
         <v>33.94366860160834</v>
@@ -7575,13 +7575,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L43" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M43" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N43" t="n">
-        <v>761.8145120199619</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O43" t="n">
         <v>1181.483761245743</v>
@@ -7596,25 +7596,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S43" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T43" t="n">
-        <v>1451.303983658873</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U43" t="n">
-        <v>1172.870982911978</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V43" t="n">
-        <v>885.9154747824084</v>
+        <v>729.7932666100203</v>
       </c>
       <c r="W43" t="n">
-        <v>885.9154747824084</v>
+        <v>729.7932666100203</v>
       </c>
       <c r="X43" t="n">
-        <v>640.5237201158209</v>
+        <v>729.7932666100203</v>
       </c>
       <c r="Y43" t="n">
-        <v>413.1040494299291</v>
+        <v>729.7932666100203</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>724.8884439079882</v>
+        <v>988.6088745483262</v>
       </c>
       <c r="C44" t="n">
-        <v>724.8884439079882</v>
+        <v>560.0272002855945</v>
       </c>
       <c r="D44" t="n">
-        <v>724.8884439079882</v>
+        <v>560.0272002855945</v>
       </c>
       <c r="E44" t="n">
-        <v>724.8884439079882</v>
+        <v>131.4455260228629</v>
       </c>
       <c r="F44" t="n">
-        <v>724.8884439079882</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G44" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H44" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I44" t="n">
         <v>33.94366860160834</v>
@@ -7681,19 +7681,19 @@
         <v>1393.464329137293</v>
       </c>
       <c r="U44" t="n">
-        <v>1134.24202645431</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V44" t="n">
-        <v>771.6250763881362</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W44" t="n">
-        <v>771.6250763881362</v>
+        <v>988.6088745483262</v>
       </c>
       <c r="X44" t="n">
-        <v>724.8884439079882</v>
+        <v>988.6088745483262</v>
       </c>
       <c r="Y44" t="n">
-        <v>724.8884439079882</v>
+        <v>988.6088745483262</v>
       </c>
     </row>
     <row r="45">
@@ -7718,34 +7718,34 @@
         <v>161.064410519212</v>
       </c>
       <c r="G45" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H45" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I45" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J45" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K45" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L45" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M45" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N45" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O45" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="P45" t="n">
-        <v>1159.957753041174</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="Q45" t="n">
         <v>1580.010651986078</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>33.94366860160834</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="C46" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="D46" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="E46" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="F46" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G46" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H46" t="n">
         <v>33.94366860160834</v>
@@ -7812,16 +7812,16 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L46" t="n">
-        <v>395.2818083374338</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M46" t="n">
-        <v>815.3347072823371</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N46" t="n">
-        <v>815.3347072823371</v>
+        <v>1233.544589050298</v>
       </c>
       <c r="O46" t="n">
-        <v>1181.483761245743</v>
+        <v>1233.544589050298</v>
       </c>
       <c r="P46" t="n">
         <v>1528.990655216085</v>
@@ -7830,28 +7830,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R46" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S46" t="n">
-        <v>1590.049453665805</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T46" t="n">
-        <v>1344.17000724426</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U46" t="n">
-        <v>1065.737006497366</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V46" t="n">
-        <v>778.7814983677961</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W46" t="n">
-        <v>506.7550939540876</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="X46" t="n">
-        <v>261.3633392875001</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="Y46" t="n">
-        <v>33.94366860160834</v>
+        <v>209.2559470001092</v>
       </c>
     </row>
   </sheetData>
@@ -9643,7 +9643,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>424.2958575201044</v>
@@ -9719,10 +9719,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>424.2958575201044</v>
@@ -9801,16 +9801,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>369.8475292559658</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
@@ -9877,7 +9877,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>424.2958575201044</v>
@@ -9956,22 +9956,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P27" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L27" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -10032,25 +10032,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O28" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>237.6484237362511</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821538</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10123,10 +10123,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O29" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P29" t="n">
         <v>424.2958575201044</v>
@@ -10196,7 +10196,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -10269,22 +10269,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>424.2958575201044</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -10351,10 +10351,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,10 +10363,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>424.2958575201044</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10512,16 +10512,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -10670,7 +10670,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>424.2958575201044</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O40" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11074,10 +11074,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P41" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q41" t="n">
         <v>424.2958575201044</v>
@@ -11141,10 +11141,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -11223,7 +11223,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>370.2350542247758</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -11372,31 +11372,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L45" t="n">
-        <v>385.2554146752024</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11460,19 +11460,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O46" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>298.4303698644312</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821538</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
@@ -24217,16 +24217,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>173.2591546950945</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H23" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>19.29199116509909</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>122.2623284749966</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>53.33692955836695</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,22 +24445,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>49.98933582586119</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D26" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0.4126214791313976</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>381.0370168657346</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>48.97231668065929</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>130.4535554620776</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24651,25 +24651,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24688,13 +24688,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>217.6350092891646</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>18.62318932011459</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>111.7053443024566</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>71.38845240117283</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>347.9744048532092</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -24931,13 +24931,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>377.6139698856264</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>71.38845240117283</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>137.4534095211668</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>97.8104582428715</v>
       </c>
       <c r="C35" t="n">
         <v>9.465190568306582</v>
@@ -25165,7 +25165,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
@@ -25207,22 +25207,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>377.8701502514795</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>95.55613866875152</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>107.3979759977458</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -25393,7 +25393,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -25402,16 +25402,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>132.4841341267557</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25450,10 +25450,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>381.4496383448661</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -25560,10 +25560,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>51.58631836451701</v>
       </c>
       <c r="X40" t="n">
-        <v>186.519833189458</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,19 +25633,19 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D41" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>49.86896399117649</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>18.62318932011459</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>160.3077334112283</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>3.087968924319057</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>327.0619164478423</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,16 +25921,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>368.6817726311359</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26025,7 +26025,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>135.7800913536207</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -26040,7 +26040,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>72.78996144619913</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>373359.4247459127</v>
+        <v>373359.4247459128</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>373359.4247459127</v>
+        <v>373359.4247459128</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>373359.4247459127</v>
+        <v>373359.4247459129</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>373359.4247459128</v>
+        <v>373359.4247459127</v>
       </c>
     </row>
     <row r="16">
@@ -26352,7 +26352,7 @@
         <v>84141.63629345146</v>
       </c>
       <c r="O2" t="n">
-        <v>84141.63629345148</v>
+        <v>84141.63629345146</v>
       </c>
       <c r="P2" t="n">
         <v>84141.63629345148</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="I6" t="n">
-        <v>-91645.5389392026</v>
+        <v>-92384.89555111826</v>
       </c>
       <c r="J6" t="n">
-        <v>21183.63978840107</v>
+        <v>20444.28317648541</v>
       </c>
       <c r="K6" t="n">
-        <v>21183.63978840107</v>
+        <v>20444.28317648541</v>
       </c>
       <c r="L6" t="n">
-        <v>21183.63978840108</v>
+        <v>20444.28317648543</v>
       </c>
       <c r="M6" t="n">
-        <v>21183.63978840108</v>
+        <v>20444.28317648543</v>
       </c>
       <c r="N6" t="n">
-        <v>21183.63978840107</v>
+        <v>20444.28317648541</v>
       </c>
       <c r="O6" t="n">
-        <v>21183.63978840108</v>
+        <v>20444.28317648541</v>
       </c>
       <c r="P6" t="n">
-        <v>21183.63978840108</v>
+        <v>20444.28317648543</v>
       </c>
     </row>
   </sheetData>
@@ -36363,7 +36363,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36375,7 +36375,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>424.2958575201044</v>
@@ -36439,10 +36439,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36451,10 +36451,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>424.2958575201044</v>
@@ -36521,16 +36521,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>369.8475292559658</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
@@ -36597,7 +36597,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>424.2958575201044</v>
@@ -36676,22 +36676,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P27" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L27" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O28" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>237.6484237362511</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821539</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -36843,10 +36843,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O29" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P29" t="n">
         <v>424.2958575201044</v>
@@ -36916,7 +36916,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36928,7 +36928,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>424.2958575201044</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -37071,10 +37071,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>424.2958575201044</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L33" t="n">
-        <v>385.2554146752024</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37232,16 +37232,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -37390,7 +37390,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>424.2958575201044</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O40" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="P41" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q41" t="n">
         <v>424.2958575201044</v>
@@ -37861,10 +37861,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37873,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>424.2958575201044</v>
@@ -37943,7 +37943,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>370.2350542247758</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -37952,7 +37952,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L45" t="n">
-        <v>385.2554146752024</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="Q45" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38180,19 +38180,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O46" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>298.4303698644312</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821539</v>
